--- a/data/trans_dic/P44-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44-Edad-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.08108822113078164</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3065258965051303</v>
+        <v>0.3065258965051305</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.07120192438644272</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0318240125682279</v>
+        <v>0.03479430548317572</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05436326792326177</v>
+        <v>0.05384028609306567</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2548663543644234</v>
+        <v>0.2592687932724158</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0444675220381613</v>
+        <v>0.04377405708169528</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.016375480721685</v>
+        <v>0.01665678934563234</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2121751336107865</v>
+        <v>0.211444945908247</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04372598744027221</v>
+        <v>0.04731404605074267</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04200949114618453</v>
+        <v>0.04052914573341848</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.244453043912416</v>
+        <v>0.2467833451454857</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1046014812006153</v>
+        <v>0.106450369773911</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1158165037423059</v>
+        <v>0.1164806363585629</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3582527449890722</v>
+        <v>0.362889230194089</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.107907617364857</v>
+        <v>0.1074749627123894</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06169163465539016</v>
+        <v>0.06156762783373879</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2870697305753242</v>
+        <v>0.2838594783961342</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09213372238960756</v>
+        <v>0.09371811805264511</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07830505749058234</v>
+        <v>0.07992523555116213</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3098501565520068</v>
+        <v>0.3115725903406065</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.09257115521505219</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.3175945311907473</v>
+        <v>0.3175945311907472</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06814947465375445</v>
+        <v>0.06453480351766029</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08217506653979526</v>
+        <v>0.08150848921041177</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2938086792017042</v>
+        <v>0.2925005626643766</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05555790039617637</v>
+        <v>0.05439222302614153</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05399504857017552</v>
+        <v>0.05258166715776933</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2752922219330124</v>
+        <v>0.2755013971401006</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06932046061655839</v>
+        <v>0.06771891717223523</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07251162946760978</v>
+        <v>0.07340127995147107</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2941764227542321</v>
+        <v>0.2950217338724779</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1326498061069563</v>
+        <v>0.1297055269066377</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1450608358842634</v>
+        <v>0.1445277988192743</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3675028053387194</v>
+        <v>0.3674432316749817</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1102331730042157</v>
+        <v>0.1122659681581673</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1092177056743072</v>
+        <v>0.1041282100612604</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3347672768782022</v>
+        <v>0.3355926135656792</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1087822150031182</v>
+        <v>0.109404468620131</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1123884131150057</v>
+        <v>0.1148916743859512</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3413847143575975</v>
+        <v>0.3427252490506099</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.1343931475839264</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4504628189599198</v>
+        <v>0.4504628189599197</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.09536190785169395</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0751778386682109</v>
+        <v>0.07251483521974077</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1026365602385973</v>
+        <v>0.09813611470683234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4056864252760157</v>
+        <v>0.4110274768774462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06617574652038691</v>
+        <v>0.06690353303016915</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06066553461277505</v>
+        <v>0.06051972636485533</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.336795482887785</v>
+        <v>0.3387882437048277</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07903050412222536</v>
+        <v>0.07904449948497091</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08893330121659061</v>
+        <v>0.08919934893432481</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3846681280074444</v>
+        <v>0.3822339805252474</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1559441409430969</v>
+        <v>0.1602833446936007</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1800372963003522</v>
+        <v>0.1761892736892493</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4898948616396931</v>
+        <v>0.4952611257977845</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.131219784253742</v>
+        <v>0.1291717806315958</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1220961095808324</v>
+        <v>0.1209724100807121</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.407307412501225</v>
+        <v>0.406427757659497</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1301097226007674</v>
+        <v>0.129924981610359</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1354902942184963</v>
+        <v>0.1372192632944137</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4365788085107483</v>
+        <v>0.436634854154922</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.1585974699077639</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3592178577036266</v>
+        <v>0.3592178577036265</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.05490116207536155</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07400612454805915</v>
+        <v>0.07625261392773051</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1184688734400303</v>
+        <v>0.1199981381146323</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3091505797774602</v>
+        <v>0.3149124326190137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03392123426366764</v>
+        <v>0.03369065360021407</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06473413472373314</v>
+        <v>0.06218479253609838</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2426901592522752</v>
+        <v>0.2426380195813474</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05789757856287656</v>
+        <v>0.05607652738629679</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09641570308764484</v>
+        <v>0.09629475856698508</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2800985391224898</v>
+        <v>0.2813399164657974</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1599737409391679</v>
+        <v>0.1603625313633393</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2044166414434982</v>
+        <v>0.2029492133485538</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4051896010850565</v>
+        <v>0.41021783788538</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08113964223561328</v>
+        <v>0.08182126833871577</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1313641428218346</v>
+        <v>0.1271069484691229</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3016478426768628</v>
+        <v>0.3043575054825531</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1027283596312625</v>
+        <v>0.1022088353784018</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1468897701288751</v>
+        <v>0.1464504815701928</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3343612193458483</v>
+        <v>0.3342742898535359</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07657237801550149</v>
+        <v>0.07847691551996094</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1021887436950379</v>
+        <v>0.1011323362788182</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3400116420467126</v>
+        <v>0.3400366221814116</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06128007987945324</v>
+        <v>0.06107576446360016</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06035873117363024</v>
+        <v>0.06195570227470121</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2866450142394491</v>
+        <v>0.2866508430085106</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07314892411682634</v>
+        <v>0.07347567468646375</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08429354105189769</v>
+        <v>0.08453321314773669</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3172737264085895</v>
+        <v>0.3174150669117179</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1127179516349354</v>
+        <v>0.115472612613822</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1357601099904893</v>
+        <v>0.1359336836774408</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3846923059837695</v>
+        <v>0.3832675934239288</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09104119094736039</v>
+        <v>0.09092387653659173</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08894612539775527</v>
+        <v>0.0891214802093461</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3204276778498423</v>
+        <v>0.3185619539871126</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09555706054319056</v>
+        <v>0.09573680453268132</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1076014436264689</v>
+        <v>0.1064468507647087</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3442201189820771</v>
+        <v>0.343926444099361</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7466</v>
+        <v>8162</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17955</v>
+        <v>17782</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>78985</v>
+        <v>80349</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12809</v>
+        <v>12609</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5257</v>
+        <v>5347</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>66265</v>
+        <v>66037</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>22853</v>
+        <v>24728</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>27361</v>
+        <v>26397</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>152104</v>
+        <v>153554</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24538</v>
+        <v>24972</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38252</v>
+        <v>38471</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>111025</v>
+        <v>112462</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>31082</v>
+        <v>30958</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19805</v>
+        <v>19765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>89656</v>
+        <v>88654</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>48152</v>
+        <v>48980</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>51001</v>
+        <v>52056</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>192796</v>
+        <v>193867</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>28221</v>
+        <v>26724</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39273</v>
+        <v>38954</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>172169</v>
+        <v>171403</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>24527</v>
+        <v>24012</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>26827</v>
+        <v>26125</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>158279</v>
+        <v>158399</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>59309</v>
+        <v>57938</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>70682</v>
+        <v>71549</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>341521</v>
+        <v>342502</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>54931</v>
+        <v>53712</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>69327</v>
+        <v>69072</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>215353</v>
+        <v>215318</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>48664</v>
+        <v>49561</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>54265</v>
+        <v>51736</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>192474</v>
+        <v>192948</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>93071</v>
+        <v>93603</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>109553</v>
+        <v>111993</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>396327</v>
+        <v>397883</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>22603</v>
+        <v>21802</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>34314</v>
+        <v>32810</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>160679</v>
+        <v>162794</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>23168</v>
+        <v>23422</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>22917</v>
+        <v>22862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>143039</v>
+        <v>143885</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>51429</v>
+        <v>51438</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>63329</v>
+        <v>63518</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>315725</v>
+        <v>313727</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46886</v>
+        <v>48190</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60192</v>
+        <v>58905</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>194031</v>
+        <v>196157</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>45939</v>
+        <v>45222</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>46123</v>
+        <v>45699</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>172986</v>
+        <v>172612</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>84669</v>
+        <v>84549</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>96482</v>
+        <v>97713</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>358332</v>
+        <v>358378</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18109</v>
+        <v>18659</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>30446</v>
+        <v>30839</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>93366</v>
+        <v>95106</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13157</v>
+        <v>13068</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>25905</v>
+        <v>24884</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>106667</v>
+        <v>106645</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>36625</v>
+        <v>35473</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>63361</v>
+        <v>63282</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>207701</v>
+        <v>208622</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39145</v>
+        <v>39240</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>52535</v>
+        <v>52158</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>122371</v>
+        <v>123889</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31472</v>
+        <v>31737</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>52568</v>
+        <v>50864</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>132581</v>
+        <v>133772</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>64983</v>
+        <v>64655</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>96531</v>
+        <v>96242</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>247939</v>
+        <v>247874</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>91431</v>
+        <v>93705</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>143016</v>
+        <v>141537</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>541970</v>
+        <v>542010</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>89927</v>
+        <v>89627</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>96321</v>
+        <v>98869</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>502056</v>
+        <v>502066</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>194688</v>
+        <v>195558</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>252487</v>
+        <v>253205</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1061428</v>
+        <v>1061900</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>134591</v>
+        <v>137880</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>190000</v>
+        <v>190243</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>613190</v>
+        <v>610919</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>133601</v>
+        <v>133429</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>141941</v>
+        <v>142221</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>561226</v>
+        <v>557958</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>254328</v>
+        <v>254806</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>322302</v>
+        <v>318844</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1151576</v>
+        <v>1150593</v>
       </c>
     </row>
     <row r="24">
